--- a/biology/Zoologie/Eremias_velox/Eremias_velox.xlsx
+++ b/biology/Zoologie/Eremias_velox/Eremias_velox.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eremias velox est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eremias velox est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le sud de la Russie, en Géorgie, en Azerbaïdjan, dans le nord de l'Iran, dans le Nord de l'Afghanistan, au Turkménistan, au Tadjikistan, au Kirghizistan, en Ouzbékistan, au Kazakhstan et en Chine au Xinjiang, au Gansu et en Mongolie-Intérieure[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le sud de la Russie, en Géorgie, en Azerbaïdjan, dans le nord de l'Iran, dans le Nord de l'Afghanistan, au Turkménistan, au Tadjikistan, au Kirghizistan, en Ouzbékistan, au Kazakhstan et en Chine au Xinjiang, au Gansu et en Mongolie-Intérieure.
 Sa présence est incertaine au Pakistan.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (21 janvier 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (21 janvier 2013) :
 Eremias velox borkini Eremchenko &amp; Panfilov 1999
 Eremias velox caucasia Lantz, 1928
 Eremias velox roborowskii Bedriaga, 1906
@@ -577,7 +593,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bedriaga, 1906 "1905" : Verzeichnis der von der Central-Asiatischen Expedition unter Stabs-Kapitän W. Roborowski in den Jahren 1893-1895 gesammelten Reptilien. Annuaire Musée Zoologique de l'Académie Impériale des Sciences de St.-Pétersbourg, vol. 10, n. 3/4, p. 159-200.
 Eremchenko &amp; Panfilov 1999 : Taxonomic position and geographic relations of a lacertid lizard Eremias velox from the Issyk-Kul lake depression, Tien Shan mountains, Kyrgyzstan. Science and New Technologies, n. 1, p. 119-125.
